--- a/report/summary_USDJPY_M5_2020-2023_0.xlsx
+++ b/report/summary_USDJPY_M5_2020-2023_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t>symbol</t>
   </si>
@@ -419,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -518,7 +518,7 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -533,39 +533,39 @@
         <v>2023</v>
       </c>
       <c r="F3">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G3">
-        <v>3.2</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="H3">
+        <v>0.45</v>
+      </c>
+      <c r="I3">
+        <v>0.25</v>
+      </c>
+      <c r="J3">
         <v>0.4</v>
       </c>
-      <c r="I3">
-        <v>0.15</v>
-      </c>
-      <c r="J3">
-        <v>0.15</v>
-      </c>
       <c r="K3">
-        <v>33.19199999999753</v>
+        <v>209.8610000000006</v>
       </c>
       <c r="L3">
-        <v>8006</v>
+        <v>15006</v>
       </c>
       <c r="M3">
-        <v>-2.687999999999988</v>
+        <v>-3.043000000000006</v>
       </c>
       <c r="N3">
-        <v>30.50399999999755</v>
+        <v>206.8180000000006</v>
       </c>
       <c r="O3">
-        <v>0.3973270047464402</v>
+        <v>0.3741836598693856</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -580,34 +580,269 @@
         <v>2023</v>
       </c>
       <c r="F4">
+        <v>50</v>
+      </c>
+      <c r="G4">
+        <v>1.8</v>
+      </c>
+      <c r="H4">
+        <v>0.35</v>
+      </c>
+      <c r="I4">
+        <v>0.1</v>
+      </c>
+      <c r="J4">
+        <v>0.3</v>
+      </c>
+      <c r="K4">
+        <v>172.3019999999976</v>
+      </c>
+      <c r="L4">
+        <v>12830</v>
+      </c>
+      <c r="M4">
+        <v>-2.687999999999988</v>
+      </c>
+      <c r="N4">
+        <v>169.6139999999976</v>
+      </c>
+      <c r="O4">
+        <v>0.3791114575214342</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="1">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>2020</v>
+      </c>
+      <c r="E5">
+        <v>2023</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>2.2</v>
+      </c>
+      <c r="H5">
+        <v>0.1</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0.35</v>
+      </c>
+      <c r="K5">
+        <v>50.54999999999801</v>
+      </c>
+      <c r="L5">
+        <v>14296</v>
+      </c>
+      <c r="M5">
+        <v>-2.578000000000003</v>
+      </c>
+      <c r="N5">
+        <v>47.971999999998</v>
+      </c>
+      <c r="O5">
+        <v>0.3642277560156687</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>2020</v>
+      </c>
+      <c r="E6">
+        <v>2023</v>
+      </c>
+      <c r="F6">
+        <v>20</v>
+      </c>
+      <c r="G6">
+        <v>3.2</v>
+      </c>
+      <c r="H6">
+        <v>0.4</v>
+      </c>
+      <c r="I6">
+        <v>0.15</v>
+      </c>
+      <c r="J6">
+        <v>0.15</v>
+      </c>
+      <c r="K6">
+        <v>33.19199999999753</v>
+      </c>
+      <c r="L6">
+        <v>8006</v>
+      </c>
+      <c r="M6">
+        <v>-2.687999999999988</v>
+      </c>
+      <c r="N6">
+        <v>30.50399999999755</v>
+      </c>
+      <c r="O6">
+        <v>0.3973270047464402</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="1">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>2020</v>
+      </c>
+      <c r="E7">
+        <v>2023</v>
+      </c>
+      <c r="F7">
         <v>70</v>
       </c>
-      <c r="G4">
+      <c r="G7">
         <v>3.8</v>
       </c>
-      <c r="H4">
+      <c r="H7">
         <v>0.3</v>
       </c>
-      <c r="I4">
+      <c r="I7">
         <v>0.15</v>
       </c>
-      <c r="J4">
+      <c r="J7">
         <v>0</v>
       </c>
-      <c r="K4">
+      <c r="K7">
         <v>9.146999999999522</v>
       </c>
-      <c r="L4">
+      <c r="L7">
         <v>6438</v>
       </c>
-      <c r="M4">
+      <c r="M7">
         <v>-2.426999999999992</v>
       </c>
-      <c r="N4">
+      <c r="N7">
         <v>6.71999999999953</v>
       </c>
-      <c r="O4">
+      <c r="O7">
         <v>0.3609816713264989</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>2020</v>
+      </c>
+      <c r="E8">
+        <v>2023</v>
+      </c>
+      <c r="F8">
+        <v>100</v>
+      </c>
+      <c r="G8">
+        <v>3.8</v>
+      </c>
+      <c r="H8">
+        <v>0.35</v>
+      </c>
+      <c r="I8">
+        <v>0.1</v>
+      </c>
+      <c r="J8">
+        <v>0.05</v>
+      </c>
+      <c r="K8">
+        <v>-11.60600000000105</v>
+      </c>
+      <c r="L8">
+        <v>6389</v>
+      </c>
+      <c r="M8">
+        <v>-2.296999999999997</v>
+      </c>
+      <c r="N8">
+        <v>-13.90300000000104</v>
+      </c>
+      <c r="O8">
+        <v>0.4434183753326029</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="1">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>2020</v>
+      </c>
+      <c r="E9">
+        <v>2023</v>
+      </c>
+      <c r="F9">
+        <v>70</v>
+      </c>
+      <c r="G9">
+        <v>2.7</v>
+      </c>
+      <c r="H9">
+        <v>0.45</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>-12.21600000000046</v>
+      </c>
+      <c r="L9">
+        <v>10742</v>
+      </c>
+      <c r="M9">
+        <v>-2.687999999999988</v>
+      </c>
+      <c r="N9">
+        <v>-14.90400000000045</v>
+      </c>
+      <c r="O9">
+        <v>0.3660398436045429</v>
       </c>
     </row>
   </sheetData>
